--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="4110" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="4110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="2" r:id="rId1"/>
-    <sheet name="log" sheetId="7" r:id="rId2"/>
+    <sheet name="log" sheetId="8" r:id="rId2"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>"=TEXT(A1, "yyyy-mm-dd") &amp; " " &amp; TEXT(A1, "dddd")
 "</t>
@@ -35,22 +35,73 @@
     <t>ID</t>
   </si>
   <si>
-    <t>enter your password here</t>
-  </si>
-  <si>
-    <t>enter your ntAccount here</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
-    <t>ex:meetings</t>
-  </si>
-  <si>
-    <t>ex:MKTGMAS-900</t>
-  </si>
-  <si>
-    <t>IP-808</t>
+    <t>Squad Meetings</t>
+  </si>
+  <si>
+    <t>MKTGMAS-919</t>
+  </si>
+  <si>
+    <t>Team Meetings</t>
+  </si>
+  <si>
+    <t>IP-6727</t>
+  </si>
+  <si>
+    <t>Self Dev</t>
+  </si>
+  <si>
+    <t>IP-8022</t>
+  </si>
+  <si>
+    <t>Vacations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKTGMAS-920 </t>
+  </si>
+  <si>
+    <t>MKTGMAS-921</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>eSIM</t>
+  </si>
+  <si>
+    <t>IP-8084</t>
+  </si>
+  <si>
+    <t>stand-up</t>
+  </si>
+  <si>
+    <t>Team Tasks</t>
+  </si>
+  <si>
+    <t>IP-7608</t>
+  </si>
+  <si>
+    <t>cash promo assignment</t>
+  </si>
+  <si>
+    <t>cash promo redemption</t>
+  </si>
+  <si>
+    <t>MKTGMAS-1004</t>
+  </si>
+  <si>
+    <t>MKTGMAS-1005</t>
+  </si>
+  <si>
+    <t>summer promo design</t>
+  </si>
+  <si>
+    <t>Enter your NTAccount here</t>
+  </si>
+  <si>
+    <t>Enter your password here</t>
   </si>
 </sst>
 </file>
@@ -96,27 +147,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -128,18 +164,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,10 +475,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -456,34 +492,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.0703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.2109375" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="5">
-        <v>45426</v>
-      </c>
-      <c r="B1" s="6">
+      <c r="A1" s="3">
+        <v>45432</v>
+      </c>
+      <c r="B1" s="4">
         <v>0.5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7" t="str">
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="str">
         <f>TEXT(A1, "dddd")</f>
-        <v>Tuesday</v>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>45432</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="str">
+        <f>TEXT(A2, "dddd")</f>
+        <v>Monday</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>45432</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="str">
+        <f>TEXT(A3, "dddd")</f>
+        <v>Monday</v>
       </c>
     </row>
   </sheetData>
@@ -499,102 +573,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.35546875" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.0703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
       <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10710" windowHeight="4110" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="2" r:id="rId1"/>
-    <sheet name="log" sheetId="8" r:id="rId2"/>
+    <sheet name="log" sheetId="9" r:id="rId2"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>"=TEXT(A1, "yyyy-mm-dd") &amp; " " &amp; TEXT(A1, "dddd")
 "</t>
@@ -59,9 +59,6 @@
     <t>Vacations</t>
   </si>
   <si>
-    <t xml:space="preserve">MKTGMAS-920 </t>
-  </si>
-  <si>
     <t>MKTGMAS-921</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>IP-8084</t>
   </si>
   <si>
-    <t>stand-up</t>
-  </si>
-  <si>
     <t>Team Tasks</t>
   </si>
   <si>
@@ -95,13 +89,46 @@
     <t>MKTGMAS-1005</t>
   </si>
   <si>
-    <t>summer promo design</t>
+    <t>International</t>
+  </si>
+  <si>
+    <t>IP-8277</t>
+  </si>
+  <si>
+    <t>MKTGMAS-1067</t>
+  </si>
+  <si>
+    <t>Stand-up</t>
+  </si>
+  <si>
+    <t>MKTGMAS-920</t>
+  </si>
+  <si>
+    <t>MKTGMAS-1079</t>
+  </si>
+  <si>
+    <t>Loyalty Urgent Update</t>
+  </si>
+  <si>
+    <t>Recharge promo</t>
+  </si>
+  <si>
+    <t>MKTGMAS-1003</t>
+  </si>
+  <si>
+    <t>MKTGMAS-1068</t>
+  </si>
+  <si>
+    <t>Summer Instant Gift Assignment</t>
+  </si>
+  <si>
+    <t>SummerInstant gift redemption</t>
   </si>
   <si>
     <t>Enter your NTAccount here</t>
   </si>
   <si>
-    <t>Enter your password here</t>
+    <t>Enter your Password here</t>
   </si>
 </sst>
 </file>
@@ -159,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -168,14 +195,15 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +503,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -492,72 +520,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.640625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.640625" customWidth="1"/>
+    <col min="1" max="1" width="10.0703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3">
-        <v>45432</v>
-      </c>
-      <c r="B1" s="4">
+        <v>45477</v>
+      </c>
+      <c r="B1">
         <v>0.5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="str">
-        <f>TEXT(A1, "dddd")</f>
-        <v>Monday</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
-        <v>45432</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="str">
-        <f>TEXT(A2, "dddd")</f>
-        <v>Monday</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
-        <v>45432</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="str">
-        <f>TEXT(A3, "dddd")</f>
-        <v>Monday</v>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="str">
+        <f xml:space="preserve"> TEXT(A1, "dddd")</f>
+        <v>Thursday</v>
       </c>
     </row>
   </sheetData>
@@ -571,29 +562,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.35546875" customWidth="1"/>
+    <col min="1" max="1" width="26.35546875" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.0703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="0.78515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -601,7 +594,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -612,7 +605,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -620,76 +613,103 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
-      <c r="B11" s="2"/>
-    </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="7"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="7"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="7"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="7"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
